--- a/contratos/contratos-2-2012.xlsx
+++ b/contratos/contratos-2-2012.xlsx
@@ -481,7 +481,7 @@
     <t>IMEL INGENIERIA Y MATERIALES ELECTRICOS S.R.L.</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>SCHIERLOH STELLA MARIS</t>
@@ -544,10 +544,10 @@
     <t>DUARTE EDMUNDO ALCIDES</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
-  </si>
-  <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
+  </si>
+  <si>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>GALVAN GUILLERMO ANDRES</t>
@@ -916,370 +916,370 @@
     <t>43</t>
   </si>
   <si>
-    <t>99,63</t>
-  </si>
-  <si>
-    <t>58.000,00</t>
-  </si>
-  <si>
-    <t>1.292,40</t>
-  </si>
-  <si>
-    <t>4.986,59</t>
-  </si>
-  <si>
-    <t>96.723,70</t>
-  </si>
-  <si>
-    <t>117.655,48</t>
-  </si>
-  <si>
-    <t>11.227,50</t>
-  </si>
-  <si>
-    <t>285,00</t>
-  </si>
-  <si>
-    <t>187,96</t>
-  </si>
-  <si>
-    <t>8.255,95</t>
-  </si>
-  <si>
-    <t>319,00</t>
-  </si>
-  <si>
-    <t>12.432,56</t>
-  </si>
-  <si>
-    <t>29.430,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>320,00</t>
-  </si>
-  <si>
-    <t>330,00</t>
-  </si>
-  <si>
-    <t>961,00</t>
-  </si>
-  <si>
-    <t>410,00</t>
-  </si>
-  <si>
-    <t>104,00</t>
-  </si>
-  <si>
-    <t>875,00</t>
-  </si>
-  <si>
-    <t>5.193,69</t>
-  </si>
-  <si>
-    <t>265,86</t>
-  </si>
-  <si>
-    <t>7,89</t>
-  </si>
-  <si>
-    <t>78,00</t>
-  </si>
-  <si>
-    <t>590,00</t>
-  </si>
-  <si>
-    <t>48.298,35</t>
-  </si>
-  <si>
-    <t>58,50</t>
-  </si>
-  <si>
-    <t>3.329,00</t>
-  </si>
-  <si>
-    <t>4.240,00</t>
-  </si>
-  <si>
-    <t>257,88</t>
-  </si>
-  <si>
-    <t>3.850,00</t>
-  </si>
-  <si>
-    <t>39,68</t>
-  </si>
-  <si>
-    <t>6.311,89</t>
-  </si>
-  <si>
-    <t>2.375,00</t>
-  </si>
-  <si>
-    <t>304,00</t>
-  </si>
-  <si>
-    <t>196,00</t>
-  </si>
-  <si>
-    <t>444,00</t>
-  </si>
-  <si>
-    <t>7.020,00</t>
-  </si>
-  <si>
-    <t>1.757,00</t>
-  </si>
-  <si>
-    <t>48,16</t>
-  </si>
-  <si>
-    <t>38.434,00</t>
-  </si>
-  <si>
-    <t>43,50</t>
-  </si>
-  <si>
-    <t>60,46</t>
-  </si>
-  <si>
-    <t>1.680,00</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>284,10</t>
-  </si>
-  <si>
-    <t>27.180,00</t>
-  </si>
-  <si>
-    <t>550,00</t>
-  </si>
-  <si>
-    <t>2.370,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>1.441,00</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>129,26</t>
-  </si>
-  <si>
-    <t>420,00</t>
-  </si>
-  <si>
-    <t>6.065,00</t>
-  </si>
-  <si>
-    <t>2.480,00</t>
-  </si>
-  <si>
-    <t>92.500,00</t>
-  </si>
-  <si>
-    <t>132.870,00</t>
-  </si>
-  <si>
-    <t>5.751,60</t>
-  </si>
-  <si>
-    <t>8.030,00</t>
-  </si>
-  <si>
-    <t>97,93</t>
-  </si>
-  <si>
-    <t>11.545,20</t>
-  </si>
-  <si>
-    <t>2.688,00</t>
-  </si>
-  <si>
-    <t>617,60</t>
-  </si>
-  <si>
-    <t>1.476,00</t>
-  </si>
-  <si>
-    <t>18,42</t>
-  </si>
-  <si>
-    <t>4.276,80</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>1.508,22</t>
-  </si>
-  <si>
-    <t>198,00</t>
-  </si>
-  <si>
-    <t>259,52</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>25.885,00</t>
-  </si>
-  <si>
-    <t>4.042,74</t>
-  </si>
-  <si>
-    <t>759.500,00</t>
-  </si>
-  <si>
-    <t>160,00</t>
-  </si>
-  <si>
-    <t>14,00</t>
-  </si>
-  <si>
-    <t>1.304,86</t>
-  </si>
-  <si>
-    <t>7.950,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>445,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>4.020,00</t>
-  </si>
-  <si>
-    <t>2.250,00</t>
-  </si>
-  <si>
-    <t>440,00</t>
-  </si>
-  <si>
-    <t>340,00</t>
-  </si>
-  <si>
-    <t>425,00</t>
-  </si>
-  <si>
-    <t>10.792,71</t>
-  </si>
-  <si>
-    <t>7.300,00</t>
-  </si>
-  <si>
-    <t>81,08</t>
-  </si>
-  <si>
-    <t>1.390,41</t>
-  </si>
-  <si>
-    <t>7.770,00</t>
-  </si>
-  <si>
-    <t>21,00</t>
-  </si>
-  <si>
-    <t>2.376,00</t>
-  </si>
-  <si>
-    <t>549,00</t>
-  </si>
-  <si>
-    <t>509,00</t>
-  </si>
-  <si>
-    <t>284,86</t>
-  </si>
-  <si>
-    <t>190,00</t>
-  </si>
-  <si>
-    <t>1.557,50</t>
-  </si>
-  <si>
-    <t>194,34</t>
-  </si>
-  <si>
-    <t>645,00</t>
-  </si>
-  <si>
-    <t>231,00</t>
-  </si>
-  <si>
-    <t>325,77</t>
-  </si>
-  <si>
-    <t>5.288,09</t>
-  </si>
-  <si>
-    <t>1.680,69</t>
-  </si>
-  <si>
-    <t>21.910,00</t>
-  </si>
-  <si>
-    <t>315,00</t>
-  </si>
-  <si>
-    <t>44.500,00</t>
-  </si>
-  <si>
-    <t>325.271,49</t>
-  </si>
-  <si>
-    <t>1.124,09</t>
-  </si>
-  <si>
-    <t>402.800,00</t>
-  </si>
-  <si>
-    <t>289.456,00</t>
-  </si>
-  <si>
-    <t>381.222,00</t>
-  </si>
-  <si>
-    <t>377.968,00</t>
-  </si>
-  <si>
-    <t>414.000,00</t>
-  </si>
-  <si>
-    <t>409.048,00</t>
-  </si>
-  <si>
-    <t>380.000,00</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>828.797,44</t>
-  </si>
-  <si>
-    <t>16.900,00</t>
-  </si>
-  <si>
-    <t>3.302,40</t>
+    <t>99.63</t>
+  </si>
+  <si>
+    <t>58000.00</t>
+  </si>
+  <si>
+    <t>1292.40</t>
+  </si>
+  <si>
+    <t>4986.59</t>
+  </si>
+  <si>
+    <t>96723.70</t>
+  </si>
+  <si>
+    <t>117655.48</t>
+  </si>
+  <si>
+    <t>11227.50</t>
+  </si>
+  <si>
+    <t>285.00</t>
+  </si>
+  <si>
+    <t>187.96</t>
+  </si>
+  <si>
+    <t>8255.95</t>
+  </si>
+  <si>
+    <t>319.00</t>
+  </si>
+  <si>
+    <t>12432.56</t>
+  </si>
+  <si>
+    <t>29430.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>320.00</t>
+  </si>
+  <si>
+    <t>330.00</t>
+  </si>
+  <si>
+    <t>961.00</t>
+  </si>
+  <si>
+    <t>410.00</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>875.00</t>
+  </si>
+  <si>
+    <t>5193.69</t>
+  </si>
+  <si>
+    <t>265.86</t>
+  </si>
+  <si>
+    <t>7.89</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>590.00</t>
+  </si>
+  <si>
+    <t>48298.35</t>
+  </si>
+  <si>
+    <t>58.50</t>
+  </si>
+  <si>
+    <t>3329.00</t>
+  </si>
+  <si>
+    <t>4240.00</t>
+  </si>
+  <si>
+    <t>257.88</t>
+  </si>
+  <si>
+    <t>3850.00</t>
+  </si>
+  <si>
+    <t>39.68</t>
+  </si>
+  <si>
+    <t>6311.89</t>
+  </si>
+  <si>
+    <t>2375.00</t>
+  </si>
+  <si>
+    <t>304.00</t>
+  </si>
+  <si>
+    <t>196.00</t>
+  </si>
+  <si>
+    <t>444.00</t>
+  </si>
+  <si>
+    <t>7020.00</t>
+  </si>
+  <si>
+    <t>1757.00</t>
+  </si>
+  <si>
+    <t>48.16</t>
+  </si>
+  <si>
+    <t>38434.00</t>
+  </si>
+  <si>
+    <t>43.50</t>
+  </si>
+  <si>
+    <t>60.46</t>
+  </si>
+  <si>
+    <t>1680.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>284.10</t>
+  </si>
+  <si>
+    <t>27180.00</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>2370.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>1441.00</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>129.26</t>
+  </si>
+  <si>
+    <t>420.00</t>
+  </si>
+  <si>
+    <t>6065.00</t>
+  </si>
+  <si>
+    <t>2480.00</t>
+  </si>
+  <si>
+    <t>92500.00</t>
+  </si>
+  <si>
+    <t>132870.00</t>
+  </si>
+  <si>
+    <t>5751.60</t>
+  </si>
+  <si>
+    <t>8030.00</t>
+  </si>
+  <si>
+    <t>97.93</t>
+  </si>
+  <si>
+    <t>11545.20</t>
+  </si>
+  <si>
+    <t>2688.00</t>
+  </si>
+  <si>
+    <t>617.60</t>
+  </si>
+  <si>
+    <t>1476.00</t>
+  </si>
+  <si>
+    <t>18.42</t>
+  </si>
+  <si>
+    <t>4276.80</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>1508.22</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>259.52</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>25885.00</t>
+  </si>
+  <si>
+    <t>4042.74</t>
+  </si>
+  <si>
+    <t>759500.00</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>14.00</t>
+  </si>
+  <si>
+    <t>1304.86</t>
+  </si>
+  <si>
+    <t>7950.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>445.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>4020.00</t>
+  </si>
+  <si>
+    <t>2250.00</t>
+  </si>
+  <si>
+    <t>440.00</t>
+  </si>
+  <si>
+    <t>340.00</t>
+  </si>
+  <si>
+    <t>425.00</t>
+  </si>
+  <si>
+    <t>10792.71</t>
+  </si>
+  <si>
+    <t>7300.00</t>
+  </si>
+  <si>
+    <t>81.08</t>
+  </si>
+  <si>
+    <t>1390.41</t>
+  </si>
+  <si>
+    <t>7770.00</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>2376.00</t>
+  </si>
+  <si>
+    <t>549.00</t>
+  </si>
+  <si>
+    <t>509.00</t>
+  </si>
+  <si>
+    <t>284.86</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>1557.50</t>
+  </si>
+  <si>
+    <t>194.34</t>
+  </si>
+  <si>
+    <t>645.00</t>
+  </si>
+  <si>
+    <t>231.00</t>
+  </si>
+  <si>
+    <t>325.77</t>
+  </si>
+  <si>
+    <t>5288.09</t>
+  </si>
+  <si>
+    <t>1680.69</t>
+  </si>
+  <si>
+    <t>21910.00</t>
+  </si>
+  <si>
+    <t>315.00</t>
+  </si>
+  <si>
+    <t>44500.00</t>
+  </si>
+  <si>
+    <t>325271.49</t>
+  </si>
+  <si>
+    <t>1124.09</t>
+  </si>
+  <si>
+    <t>402800.00</t>
+  </si>
+  <si>
+    <t>289456.00</t>
+  </si>
+  <si>
+    <t>381222.00</t>
+  </si>
+  <si>
+    <t>377968.00</t>
+  </si>
+  <si>
+    <t>414000.00</t>
+  </si>
+  <si>
+    <t>409048.00</t>
+  </si>
+  <si>
+    <t>380000.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>828797.44</t>
+  </si>
+  <si>
+    <t>16900.00</t>
+  </si>
+  <si>
+    <t>3302.40</t>
   </si>
 </sst>
 </file>
